--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-58/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-58/curvature_data.xlsx
@@ -379,72 +379,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>57557.491216</v>
+        <v>57520.959215</v>
       </c>
       <c r="B2">
-        <v>-0.0005129565999999999</v>
+        <v>-2.1641677868e-05</v>
       </c>
       <c r="C2">
-        <v>-0.0005695385</v>
+        <v>-2.1802239792e-05</v>
       </c>
       <c r="D2">
-        <v>-0.0001530929</v>
+        <v>-2.2274859077e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>57568.427217</v>
+        <v>57534.159215</v>
       </c>
       <c r="B3">
-        <v>-0.0002681241</v>
+        <v>-0.00011536607491</v>
       </c>
       <c r="C3">
-        <v>-0.0003278304</v>
+        <v>-0.0001215386885</v>
       </c>
       <c r="D3">
-        <v>-0.0001307643</v>
+        <v>-8.1310393772e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>57534.159215</v>
+        <v>57546.627216</v>
       </c>
       <c r="B4">
-        <v>-0.00011536607491</v>
+        <v>-0.0002949563</v>
       </c>
       <c r="C4">
-        <v>-0.0001215386885</v>
+        <v>-0.0003407291</v>
       </c>
       <c r="D4">
-        <v>-8.1310393772e-05</v>
+        <v>-0.0001179775</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>57591.827218</v>
+        <v>57557.491216</v>
       </c>
       <c r="B5">
-        <v>-1.3873515116e-05</v>
+        <v>-0.0005129565999999999</v>
       </c>
       <c r="C5">
-        <v>-1.7079975533e-05</v>
+        <v>-0.0005695385</v>
       </c>
       <c r="D5">
-        <v>-2.6577043064e-05</v>
+        <v>-0.0001530929</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>57546.627216</v>
+        <v>57568.427217</v>
       </c>
       <c r="B6">
-        <v>-0.0002949563</v>
+        <v>-0.0002681241</v>
       </c>
       <c r="C6">
-        <v>-0.0003407291</v>
+        <v>-0.0003278304</v>
       </c>
       <c r="D6">
-        <v>-0.0001179775</v>
+        <v>-0.0001307643</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -463,16 +463,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>57520.959215</v>
+        <v>57591.827218</v>
       </c>
       <c r="B8">
-        <v>-2.1641677868e-05</v>
+        <v>-1.3873515116e-05</v>
       </c>
       <c r="C8">
-        <v>-2.1802239792e-05</v>
+        <v>-1.7079975533e-05</v>
       </c>
       <c r="D8">
-        <v>-2.2274859077e-05</v>
+        <v>-2.6577043064e-05</v>
       </c>
     </row>
   </sheetData>
